--- a/3. Funciones de Texto.xlsx
+++ b/3. Funciones de Texto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7922b0b09328d329/Data World/Programas/Excel Básico a Avanzado/Carpeta para compartir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="13_ncr:1_{95552C64-18A8-4CFE-BA49-D84AF336F73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D47F1857-A576-4E12-8919-EB332339CCD4}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="13_ncr:1_{95552C64-18A8-4CFE-BA49-D84AF336F73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0260BC39-06A3-489A-A15E-6BA58877D519}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funciones de Texto" sheetId="1" r:id="rId1"/>
@@ -865,7 +865,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -938,9 +938,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1867,56 +1864,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1000125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F688E464-5917-4C2E-A86A-B81EFAD4BF18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1000125" cy="1000125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2018,56 +1965,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F3A420-B98D-4D17-BBBE-08BA35C560D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1000125" cy="1000125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2161,56 +2058,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4729F83C-90D7-477A-873F-0191B9B319C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1000125" cy="1000125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2518,29 +2365,27 @@
   </sheetPr>
   <dimension ref="B1:L43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="87" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="87" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="32" t="s">
         <v>60</v>
       </c>
@@ -2554,7 +2399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="33"/>
       <c r="C10" s="3">
         <v>52</v>
@@ -2569,7 +2414,7 @@
       </c>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J11" s="7" t="s">
         <v>0</v>
       </c>
@@ -2577,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J12" t="s">
         <v>5</v>
       </c>
@@ -2587,7 +2432,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
         <v>12</v>
       </c>
@@ -2610,7 +2455,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="33"/>
       <c r="C14" s="3" t="s">
         <v>6</v>
@@ -2633,7 +2478,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J15" t="s">
         <v>9</v>
       </c>
@@ -2643,7 +2488,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="32" t="s">
         <v>59</v>
       </c>
@@ -2665,7 +2510,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="33"/>
       <c r="C17" s="3" t="s">
         <v>15</v>
@@ -2688,7 +2533,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J18" t="s">
         <v>14</v>
       </c>
@@ -2698,7 +2543,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="32" t="s">
         <v>58</v>
       </c>
@@ -2720,7 +2565,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="33"/>
       <c r="C20" s="5" t="s">
         <v>22</v>
@@ -2743,7 +2588,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="31" t="s">
         <v>24</v>
       </c>
@@ -2751,7 +2596,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>25</v>
       </c>
@@ -2763,7 +2608,7 @@
         <v>✔</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>26</v>
       </c>
@@ -2773,7 +2618,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>27</v>
       </c>
@@ -2783,7 +2628,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>28</v>
       </c>
@@ -2797,7 +2642,7 @@
       <c r="K35" s="31"/>
       <c r="L35" s="31"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>29</v>
       </c>
@@ -2807,7 +2652,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>30</v>
       </c>
@@ -2817,7 +2662,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>31</v>
       </c>
@@ -2827,7 +2672,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>32</v>
       </c>
@@ -2837,7 +2682,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>33</v>
       </c>
@@ -2847,7 +2692,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>34</v>
       </c>
@@ -2857,7 +2702,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>35</v>
       </c>
@@ -2867,7 +2712,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>36</v>
       </c>
@@ -2976,19 +2821,19 @@
   </sheetPr>
   <dimension ref="A8:D20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>37</v>
       </c>
@@ -2999,7 +2844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>40</v>
       </c>
@@ -3014,7 +2859,7 @@
         <v>✔</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>41</v>
       </c>
@@ -3025,7 +2870,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>42</v>
       </c>
@@ -3036,7 +2881,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>43</v>
       </c>
@@ -3047,7 +2892,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>44</v>
       </c>
@@ -3058,7 +2903,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>45</v>
       </c>
@@ -3069,7 +2914,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -3080,7 +2925,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>47</v>
       </c>
@@ -3091,7 +2936,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>48</v>
       </c>
@@ -3102,7 +2947,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>49</v>
       </c>
@@ -3113,8 +2958,8 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="18"/>
@@ -3124,7 +2969,7 @@
         <v>✘</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
     </row>
   </sheetData>
@@ -3151,20 +2996,18 @@
   </sheetPr>
   <dimension ref="B16:J36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="21.44140625" customWidth="1"/>
-    <col min="8" max="8" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="16" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="27" t="s">
         <v>51</v>
       </c>
@@ -3187,7 +3030,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
         <v>96</v>
       </c>
@@ -3217,7 +3060,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
         <v>106</v>
       </c>
@@ -3235,7 +3078,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="20" t="s">
         <v>97</v>
       </c>
@@ -3253,7 +3096,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="20" t="s">
         <v>98</v>
       </c>
@@ -3271,7 +3114,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>99</v>
       </c>
@@ -3289,7 +3132,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="20" t="s">
         <v>100</v>
       </c>
@@ -3307,7 +3150,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
@@ -3325,7 +3168,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
@@ -3343,7 +3186,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
@@ -3361,7 +3204,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
@@ -3379,7 +3222,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
         <v>87</v>
       </c>
@@ -3397,7 +3240,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="20" t="s">
         <v>88</v>
       </c>
@@ -3415,7 +3258,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="20" t="s">
         <v>89</v>
       </c>
@@ -3433,7 +3276,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="20" t="s">
         <v>90</v>
       </c>
@@ -3451,7 +3294,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="20" t="s">
         <v>91</v>
       </c>
@@ -3469,7 +3312,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="20" t="s">
         <v>92</v>
       </c>
@@ -3487,7 +3330,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="20" t="s">
         <v>93</v>
       </c>
@@ -3505,7 +3348,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="20" t="s">
         <v>94</v>
       </c>
@@ -3523,7 +3366,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="20" t="s">
         <v>95</v>
       </c>
@@ -3541,7 +3384,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="20" t="s">
         <v>105</v>
       </c>
